--- a/SchedulingData/static4/pso/scheduling1_7.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_7.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.54000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>25.996</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>119.68</v>
+        <v>76.34</v>
       </c>
       <c r="E3" t="n">
-        <v>23.292</v>
+        <v>26.496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>76.09999999999999</v>
+        <v>157.06</v>
       </c>
       <c r="E4" t="n">
-        <v>26.52</v>
+        <v>19.584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>55.46</v>
+        <v>53.2</v>
       </c>
       <c r="E5" t="n">
-        <v>25.644</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>119.68</v>
+        <v>76.34</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7</v>
+        <v>109.14</v>
       </c>
       <c r="E6" t="n">
-        <v>20.52</v>
+        <v>23.856</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.46</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>143.86</v>
+        <v>56.6</v>
       </c>
       <c r="E7" t="n">
-        <v>19.944</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>156.4</v>
+        <v>49.1</v>
       </c>
       <c r="E8" t="n">
-        <v>22.56</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>76.12</v>
+        <v>89.7</v>
       </c>
       <c r="E9" t="n">
-        <v>24.568</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.12</v>
+        <v>89.7</v>
       </c>
       <c r="D10" t="n">
-        <v>142.16</v>
+        <v>157.42</v>
       </c>
       <c r="E10" t="n">
-        <v>21.604</v>
+        <v>21.028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>56.6</v>
       </c>
       <c r="D11" t="n">
-        <v>66.44</v>
+        <v>139.9</v>
       </c>
       <c r="E11" t="n">
-        <v>26.016</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>143.86</v>
+        <v>139.9</v>
       </c>
       <c r="D12" t="n">
-        <v>206.06</v>
+        <v>240.9</v>
       </c>
       <c r="E12" t="n">
-        <v>17.304</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>206.06</v>
+        <v>49.1</v>
       </c>
       <c r="D13" t="n">
-        <v>273.06</v>
+        <v>86.7</v>
       </c>
       <c r="E13" t="n">
-        <v>13.224</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="D14" t="n">
-        <v>49.1</v>
+        <v>152.74</v>
       </c>
       <c r="E14" t="n">
-        <v>27.28</v>
+        <v>20.156</v>
       </c>
     </row>
     <row r="15">
@@ -713,74 +713,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>156.4</v>
+        <v>53.2</v>
       </c>
       <c r="D15" t="n">
-        <v>188.5</v>
+        <v>106.36</v>
       </c>
       <c r="E15" t="n">
-        <v>20.48</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.1</v>
+        <v>109.14</v>
       </c>
       <c r="D16" t="n">
-        <v>133.86</v>
+        <v>168.74</v>
       </c>
       <c r="E16" t="n">
-        <v>21.904</v>
+        <v>21.016</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>142.16</v>
+        <v>157.06</v>
       </c>
       <c r="D17" t="n">
-        <v>210.38</v>
+        <v>223.2</v>
       </c>
       <c r="E17" t="n">
-        <v>17.392</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>273.06</v>
+        <v>223.2</v>
       </c>
       <c r="D18" t="n">
-        <v>350.16</v>
+        <v>276.62</v>
       </c>
       <c r="E18" t="n">
-        <v>10.104</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="19">
@@ -789,74 +789,74 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>133.86</v>
+        <v>152.74</v>
       </c>
       <c r="D19" t="n">
-        <v>193.46</v>
+        <v>198.8</v>
       </c>
       <c r="E19" t="n">
-        <v>16.584</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>66.44</v>
+        <v>106.36</v>
       </c>
       <c r="D20" t="n">
-        <v>133.14</v>
+        <v>166.78</v>
       </c>
       <c r="E20" t="n">
-        <v>20.976</v>
+        <v>19.232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>188.5</v>
+        <v>276.62</v>
       </c>
       <c r="D21" t="n">
-        <v>269.34</v>
+        <v>328.82</v>
       </c>
       <c r="E21" t="n">
-        <v>16.976</v>
+        <v>7.308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>210.38</v>
+        <v>166.78</v>
       </c>
       <c r="D22" t="n">
-        <v>245</v>
+        <v>216.74</v>
       </c>
       <c r="E22" t="n">
-        <v>15.06</v>
+        <v>14.876</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>193.46</v>
+        <v>198.8</v>
       </c>
       <c r="D23" t="n">
-        <v>233.08</v>
+        <v>259.52</v>
       </c>
       <c r="E23" t="n">
-        <v>13.752</v>
+        <v>12.228</v>
       </c>
     </row>
     <row r="24">
@@ -884,60 +884,60 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>158.7</v>
+        <v>168.74</v>
       </c>
       <c r="D24" t="n">
-        <v>216.96</v>
+        <v>212.66</v>
       </c>
       <c r="E24" t="n">
-        <v>16.824</v>
+        <v>18.244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>233.08</v>
+        <v>157.42</v>
       </c>
       <c r="D25" t="n">
-        <v>274.24</v>
+        <v>198.62</v>
       </c>
       <c r="E25" t="n">
-        <v>11.256</v>
+        <v>17.548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>274.24</v>
+        <v>198.62</v>
       </c>
       <c r="D26" t="n">
-        <v>365.34</v>
+        <v>260.72</v>
       </c>
       <c r="E26" t="n">
-        <v>7.736</v>
+        <v>14.468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>133.14</v>
+        <v>259.52</v>
       </c>
       <c r="D27" t="n">
-        <v>180.74</v>
+        <v>302.02</v>
       </c>
       <c r="E27" t="n">
-        <v>17.856</v>
+        <v>9.108000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>216.96</v>
+        <v>212.66</v>
       </c>
       <c r="D28" t="n">
-        <v>266.66</v>
+        <v>274.96</v>
       </c>
       <c r="E28" t="n">
-        <v>13.984</v>
+        <v>15.124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>266.66</v>
+        <v>302.02</v>
       </c>
       <c r="D29" t="n">
-        <v>326.98</v>
+        <v>350.36</v>
       </c>
       <c r="E29" t="n">
-        <v>10.552</v>
+        <v>6.404</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>180.74</v>
+        <v>274.96</v>
       </c>
       <c r="D30" t="n">
-        <v>232.64</v>
+        <v>317.06</v>
       </c>
       <c r="E30" t="n">
-        <v>14.776</v>
+        <v>13.044</v>
       </c>
     </row>
     <row r="31">
@@ -1017,55 +1017,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>232.64</v>
+        <v>328.82</v>
       </c>
       <c r="D31" t="n">
-        <v>299.74</v>
+        <v>373.44</v>
       </c>
       <c r="E31" t="n">
-        <v>11.656</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>245</v>
+        <v>216.74</v>
       </c>
       <c r="D32" t="n">
-        <v>297.82</v>
+        <v>270.96</v>
       </c>
       <c r="E32" t="n">
-        <v>11.408</v>
+        <v>12.544</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>297.82</v>
+        <v>270.96</v>
       </c>
       <c r="D33" t="n">
-        <v>370.12</v>
+        <v>326.6</v>
       </c>
       <c r="E33" t="n">
-        <v>7.768</v>
+        <v>9.58</v>
       </c>
     </row>
   </sheetData>
